--- a/excelData/L_1050-3.1.xlsx
+++ b/excelData/L_1050-3.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12825" windowHeight="15915" firstSheet="14" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12825" windowHeight="15915" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="T_9t_t_185_00011_00_001" sheetId="1" r:id="rId1"/>
@@ -101,15 +101,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>telesopableLoads</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>t_185_00011_00_001 / t_185_00111_00_001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -126,18 +118,6 @@
   </si>
   <si>
     <t>t_185_00113_00_001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -165,15 +145,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>telesopableLoads</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>overRear</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -206,6 +178,32 @@
   </si>
   <si>
     <t>t_185_04116_00_001 / 04216_00_001 / 04316_00_001 / 04416_00_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>telescopableLoads: x</t>
+  </si>
+  <si>
+    <t>telescopableLoads: o</t>
+  </si>
+  <si>
+    <t>optional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -723,7 +721,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:O10"/>
+      <selection activeCell="P11" sqref="P11:AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1314,7 +1312,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>13</v>
@@ -1358,49 +1356,49 @@
     </row>
     <row r="14" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -2196,7 +2194,7 @@
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
       <c r="O36" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2210,7 +2208,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J18" sqref="A1:Q35"/>
+      <selection activeCell="R13" sqref="R13:X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2220,7 +2218,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2">
         <v>35.799999999999997</v>
@@ -2273,7 +2271,7 @@
     </row>
     <row r="2" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -2538,7 +2536,7 @@
     </row>
     <row r="7" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -2766,7 +2764,7 @@
     </row>
     <row r="11" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5">
         <v>360</v>
@@ -2872,10 +2870,10 @@
     </row>
     <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
@@ -2893,10 +2891,10 @@
         <v>15</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>15</v>
@@ -2925,55 +2923,55 @@
     </row>
     <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,7 +3750,7 @@
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
       <c r="Q35" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3766,7 +3764,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M12" sqref="A1:U39"/>
+      <selection activeCell="V13" sqref="V13:X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3776,7 +3774,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2">
         <v>11.4</v>
@@ -3841,7 +3839,7 @@
     </row>
     <row r="2" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -4166,7 +4164,7 @@
     </row>
     <row r="7" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -4446,7 +4444,7 @@
     </row>
     <row r="11" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5">
         <v>360</v>
@@ -4576,10 +4574,10 @@
     </row>
     <row r="13" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
@@ -4597,10 +4595,10 @@
         <v>15</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>15</v>
@@ -4636,72 +4634,72 @@
         <v>15</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -5798,7 +5796,7 @@
       <c r="S39" s="13"/>
       <c r="T39" s="13"/>
       <c r="U39" s="14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -5812,7 +5810,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+      <selection activeCell="P12" sqref="P12:W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5822,7 +5820,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2">
         <v>35.799999999999997</v>
@@ -5869,7 +5867,7 @@
     </row>
     <row r="2" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -6104,7 +6102,7 @@
     </row>
     <row r="7" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -6306,7 +6304,7 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5">
         <v>360</v>
@@ -6400,10 +6398,10 @@
     </row>
     <row r="13" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
@@ -6421,10 +6419,10 @@
         <v>15</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>15</v>
@@ -6447,49 +6445,49 @@
     </row>
     <row r="14" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -7180,7 +7178,7 @@
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -7194,7 +7192,7 @@
   <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S8" sqref="A1:AC26"/>
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7205,7 +7203,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2">
         <v>11.4</v>
@@ -7294,7 +7292,7 @@
     </row>
     <row r="2" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -7739,7 +7737,7 @@
     </row>
     <row r="7" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -8123,7 +8121,7 @@
     </row>
     <row r="11" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5">
         <v>360</v>
@@ -8301,10 +8299,10 @@
     </row>
     <row r="13" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
@@ -8322,10 +8320,10 @@
         <v>15</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>15</v>
@@ -8361,120 +8359,120 @@
         <v>15</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="AB14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
@@ -9194,7 +9192,7 @@
       <c r="AA26" s="13"/>
       <c r="AB26" s="13"/>
       <c r="AC26" s="14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -9208,7 +9206,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q16" sqref="A1:W32"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9219,7 +9217,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2">
         <v>32.6</v>
@@ -9290,7 +9288,7 @@
     </row>
     <row r="2" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -9645,7 +9643,7 @@
     </row>
     <row r="7" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -9951,7 +9949,7 @@
     </row>
     <row r="11" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5">
         <v>360</v>
@@ -10093,10 +10091,10 @@
     </row>
     <row r="13" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
@@ -10114,10 +10112,10 @@
         <v>15</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>15</v>
@@ -10153,84 +10151,84 @@
         <v>15</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -11150,7 +11148,7 @@
       <c r="U32" s="14"/>
       <c r="V32" s="13"/>
       <c r="W32" s="14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -11164,7 +11162,7 @@
   <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11175,7 +11173,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2">
         <v>11.4</v>
@@ -11264,7 +11262,7 @@
     </row>
     <row r="2" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -11709,7 +11707,7 @@
     </row>
     <row r="7" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -12093,7 +12091,7 @@
     </row>
     <row r="11" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5">
         <v>360</v>
@@ -12271,10 +12269,10 @@
     </row>
     <row r="13" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
@@ -12292,10 +12290,10 @@
         <v>15</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>15</v>
@@ -12331,120 +12329,120 @@
         <v>15</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="AB14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
@@ -13164,7 +13162,7 @@
       <c r="AA26" s="13"/>
       <c r="AB26" s="13"/>
       <c r="AC26" s="14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -13177,8 +13175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13189,7 +13187,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2">
         <v>32.6</v>
@@ -13260,7 +13258,7 @@
     </row>
     <row r="2" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -13615,7 +13613,7 @@
     </row>
     <row r="7" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -13921,7 +13919,7 @@
     </row>
     <row r="11" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5">
         <v>360</v>
@@ -14063,10 +14061,10 @@
     </row>
     <row r="13" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
@@ -14084,10 +14082,10 @@
         <v>15</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>15</v>
@@ -14123,84 +14121,84 @@
         <v>15</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -15087,7 +15085,7 @@
       <c r="U31" s="14"/>
       <c r="V31" s="13"/>
       <c r="W31" s="14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -15101,7 +15099,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="A1:N36"/>
+      <selection activeCell="O13" sqref="O13:Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15655,7 +15653,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>13</v>
@@ -15696,46 +15694,46 @@
     </row>
     <row r="14" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -16497,7 +16495,7 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
       <c r="N36" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -16511,7 +16509,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="A1:N36"/>
+      <selection activeCell="O13" sqref="O13:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17065,7 +17063,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>13</v>
@@ -17106,46 +17104,46 @@
     </row>
     <row r="14" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -17907,7 +17905,7 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
       <c r="N36" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -17921,7 +17919,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="T13" sqref="T13:Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18660,7 +18658,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>13</v>
@@ -18716,61 +18714,61 @@
     </row>
     <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -19272,7 +19270,7 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -19286,7 +19284,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O19" sqref="A1:U38"/>
+      <selection activeCell="V12" sqref="V12:X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19296,7 +19294,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2">
         <v>11.4</v>
@@ -19361,7 +19359,7 @@
     </row>
     <row r="2" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -19686,7 +19684,7 @@
     </row>
     <row r="7" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -19966,7 +19964,7 @@
     </row>
     <row r="11" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5">
         <v>360</v>
@@ -20096,10 +20094,10 @@
     </row>
     <row r="13" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
@@ -20117,10 +20115,10 @@
         <v>15</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>15</v>
@@ -20156,72 +20154,72 @@
         <v>15</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -21283,7 +21281,7 @@
       <c r="S38" s="13"/>
       <c r="T38" s="13"/>
       <c r="U38" s="14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -21297,7 +21295,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M29" sqref="A1:Q37"/>
+      <selection activeCell="R13" sqref="R13:AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21307,7 +21305,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2">
         <v>35.799999999999997</v>
@@ -21360,7 +21358,7 @@
     </row>
     <row r="2" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -21625,7 +21623,7 @@
     </row>
     <row r="7" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -21853,7 +21851,7 @@
     </row>
     <row r="11" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5">
         <v>360</v>
@@ -21959,10 +21957,10 @@
     </row>
     <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
@@ -21980,10 +21978,10 @@
         <v>15</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>15</v>
@@ -22012,55 +22010,55 @@
     </row>
     <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -22893,7 +22891,7 @@
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
       <c r="Q37" s="14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -22907,7 +22905,7 @@
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P23" sqref="A1:U41"/>
+      <selection activeCell="V13" sqref="V13:X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22917,7 +22915,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2">
         <v>11.4</v>
@@ -22982,7 +22980,7 @@
     </row>
     <row r="2" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -23307,7 +23305,7 @@
     </row>
     <row r="7" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -23587,7 +23585,7 @@
     </row>
     <row r="11" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5">
         <v>360</v>
@@ -23717,10 +23715,10 @@
     </row>
     <row r="13" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
@@ -23738,10 +23736,10 @@
         <v>15</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>15</v>
@@ -23777,72 +23775,72 @@
         <v>15</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -25003,7 +25001,7 @@
       <c r="S41" s="13"/>
       <c r="T41" s="13"/>
       <c r="U41" s="14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -25017,7 +25015,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="O13" sqref="O13:X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25027,7 +25025,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2">
         <v>35.799999999999997</v>
@@ -25071,7 +25069,7 @@
     </row>
     <row r="2" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -25291,7 +25289,7 @@
     </row>
     <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -25480,7 +25478,7 @@
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5">
         <v>360</v>
@@ -25568,10 +25566,10 @@
     </row>
     <row r="13" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
@@ -25589,10 +25587,10 @@
         <v>15</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>15</v>
@@ -25612,46 +25610,46 @@
     </row>
     <row r="14" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -26373,7 +26371,7 @@
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
       <c r="N37" s="14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -26387,7 +26385,7 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K24" sqref="A1:U37"/>
+      <selection activeCell="V13" sqref="V13:X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26397,7 +26395,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2">
         <v>11.4</v>
@@ -26462,7 +26460,7 @@
     </row>
     <row r="2" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -26787,7 +26785,7 @@
     </row>
     <row r="7" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -27067,7 +27065,7 @@
     </row>
     <row r="11" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5">
         <v>360</v>
@@ -27197,10 +27195,10 @@
     </row>
     <row r="13" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
@@ -27218,10 +27216,10 @@
         <v>15</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>15</v>
@@ -27257,72 +27255,72 @@
         <v>15</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -28355,7 +28353,7 @@
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
       <c r="U37" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
